--- a/public/file/revenue-cogs/bju_asumsi_unit_beli.xlsx
+++ b/public/file/revenue-cogs/bju_asumsi_unit_beli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25380" windowHeight="12080"/>
+    <workbookView windowWidth="20925" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,6 +78,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,8 +103,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +134,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -112,8 +165,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,31 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,67 +224,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -240,19 +240,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,19 +378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,49 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,79 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,11 +449,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,30 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,168 +546,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,54 +709,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1025,15 +1025,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,56 +1073,8 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="str">
-        <f t="shared" ref="N1:Y1" si="0">_xlfn.CONCAT(B1," budget")</f>
-        <v>jan budget</v>
-      </c>
-      <c r="O1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>feb budget</v>
-      </c>
-      <c r="P1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>mar budget</v>
-      </c>
-      <c r="Q1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>apr budget</v>
-      </c>
-      <c r="R1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>mei budget</v>
-      </c>
-      <c r="S1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>jun budget</v>
-      </c>
-      <c r="T1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>jul budget</v>
-      </c>
-      <c r="U1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>agu budget</v>
-      </c>
-      <c r="V1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>sep budget</v>
-      </c>
-      <c r="W1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>okt budget</v>
-      </c>
-      <c r="X1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nov budget</v>
-      </c>
-      <c r="Y1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>des budget</v>
-      </c>
-    </row>
-    <row r="2" ht="14.75" spans="1:25">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>302</v>
       </c>
@@ -1162,44 +1114,8 @@
       <c r="M2">
         <v>67</v>
       </c>
-      <c r="N2">
-        <v>58</v>
-      </c>
-      <c r="O2">
-        <v>63</v>
-      </c>
-      <c r="P2">
-        <v>56</v>
-      </c>
-      <c r="Q2">
-        <v>55</v>
-      </c>
-      <c r="R2">
-        <v>68</v>
-      </c>
-      <c r="S2">
-        <v>57</v>
-      </c>
-      <c r="T2">
-        <v>61</v>
-      </c>
-      <c r="U2">
-        <v>56</v>
-      </c>
-      <c r="V2">
-        <v>58</v>
-      </c>
-      <c r="W2">
-        <v>60</v>
-      </c>
-      <c r="X2">
-        <v>60</v>
-      </c>
-      <c r="Y2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" ht="14.75" spans="1:25">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>306</v>
       </c>
@@ -1239,44 +1155,8 @@
       <c r="M3">
         <v>65</v>
       </c>
-      <c r="N3">
-        <v>57</v>
-      </c>
-      <c r="O3">
-        <v>52</v>
-      </c>
-      <c r="P3">
-        <v>57</v>
-      </c>
-      <c r="Q3">
-        <v>67</v>
-      </c>
-      <c r="R3">
-        <v>50</v>
-      </c>
-      <c r="S3">
-        <v>71</v>
-      </c>
-      <c r="T3">
-        <v>52</v>
-      </c>
-      <c r="U3">
-        <v>72</v>
-      </c>
-      <c r="V3">
-        <v>71</v>
-      </c>
-      <c r="W3">
-        <v>56</v>
-      </c>
-      <c r="X3">
-        <v>64</v>
-      </c>
-      <c r="Y3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" ht="14.75" spans="1:25">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>308</v>
       </c>
@@ -1316,44 +1196,8 @@
       <c r="M4">
         <v>60</v>
       </c>
-      <c r="N4">
-        <v>57</v>
-      </c>
-      <c r="O4">
-        <v>73</v>
-      </c>
-      <c r="P4">
-        <v>65</v>
-      </c>
-      <c r="Q4">
-        <v>63</v>
-      </c>
-      <c r="R4">
-        <v>67</v>
-      </c>
-      <c r="S4">
-        <v>53</v>
-      </c>
-      <c r="T4">
-        <v>68</v>
-      </c>
-      <c r="U4">
-        <v>71</v>
-      </c>
-      <c r="V4">
-        <v>57</v>
-      </c>
-      <c r="W4">
-        <v>60</v>
-      </c>
-      <c r="X4">
-        <v>68</v>
-      </c>
-      <c r="Y4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" ht="14.75" spans="1:25">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>309</v>
       </c>
@@ -1393,44 +1237,8 @@
       <c r="M5">
         <v>60</v>
       </c>
-      <c r="N5">
-        <v>75</v>
-      </c>
-      <c r="O5">
-        <v>59</v>
-      </c>
-      <c r="P5">
-        <v>69</v>
-      </c>
-      <c r="Q5">
-        <v>63</v>
-      </c>
-      <c r="R5">
-        <v>54</v>
-      </c>
-      <c r="S5">
-        <v>55</v>
-      </c>
-      <c r="T5">
-        <v>66</v>
-      </c>
-      <c r="U5">
-        <v>68</v>
-      </c>
-      <c r="V5">
-        <v>55</v>
-      </c>
-      <c r="W5">
-        <v>64</v>
-      </c>
-      <c r="X5">
-        <v>55</v>
-      </c>
-      <c r="Y5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="14.75" spans="1:25">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>310</v>
       </c>
@@ -1470,44 +1278,8 @@
       <c r="M6">
         <v>52</v>
       </c>
-      <c r="N6">
-        <v>62</v>
-      </c>
-      <c r="O6">
-        <v>70</v>
-      </c>
-      <c r="P6">
-        <v>55</v>
-      </c>
-      <c r="Q6">
-        <v>54</v>
-      </c>
-      <c r="R6">
-        <v>70</v>
-      </c>
-      <c r="S6">
-        <v>58</v>
-      </c>
-      <c r="T6">
-        <v>58</v>
-      </c>
-      <c r="U6">
-        <v>74</v>
-      </c>
-      <c r="V6">
-        <v>74</v>
-      </c>
-      <c r="W6">
-        <v>71</v>
-      </c>
-      <c r="X6">
-        <v>54</v>
-      </c>
-      <c r="Y6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" ht="14.75" spans="1:25">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>311</v>
       </c>
@@ -1547,44 +1319,8 @@
       <c r="M7">
         <v>75</v>
       </c>
-      <c r="N7">
-        <v>71</v>
-      </c>
-      <c r="O7">
-        <v>56</v>
-      </c>
-      <c r="P7">
-        <v>62</v>
-      </c>
-      <c r="Q7">
-        <v>56</v>
-      </c>
-      <c r="R7">
-        <v>72</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
-      </c>
-      <c r="T7">
-        <v>61</v>
-      </c>
-      <c r="U7">
-        <v>70</v>
-      </c>
-      <c r="V7">
-        <v>62</v>
-      </c>
-      <c r="W7">
-        <v>72</v>
-      </c>
-      <c r="X7">
-        <v>69</v>
-      </c>
-      <c r="Y7">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" ht="14.75" spans="1:25">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>312</v>
       </c>
@@ -1624,44 +1360,8 @@
       <c r="M8">
         <v>67</v>
       </c>
-      <c r="N8">
-        <v>59</v>
-      </c>
-      <c r="O8">
-        <v>67</v>
-      </c>
-      <c r="P8">
-        <v>68</v>
-      </c>
-      <c r="Q8">
-        <v>71</v>
-      </c>
-      <c r="R8">
-        <v>62</v>
-      </c>
-      <c r="S8">
-        <v>65</v>
-      </c>
-      <c r="T8">
-        <v>59</v>
-      </c>
-      <c r="U8">
-        <v>54</v>
-      </c>
-      <c r="V8">
-        <v>61</v>
-      </c>
-      <c r="W8">
-        <v>69</v>
-      </c>
-      <c r="X8">
-        <v>53</v>
-      </c>
-      <c r="Y8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" ht="14.75" spans="1:25">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>313</v>
       </c>
@@ -1701,44 +1401,8 @@
       <c r="M9">
         <v>56</v>
       </c>
-      <c r="N9">
-        <v>74</v>
-      </c>
-      <c r="O9">
-        <v>75</v>
-      </c>
-      <c r="P9">
-        <v>66</v>
-      </c>
-      <c r="Q9">
-        <v>70</v>
-      </c>
-      <c r="R9">
-        <v>65</v>
-      </c>
-      <c r="S9">
-        <v>63</v>
-      </c>
-      <c r="T9">
-        <v>56</v>
-      </c>
-      <c r="U9">
-        <v>57</v>
-      </c>
-      <c r="V9">
-        <v>57</v>
-      </c>
-      <c r="W9">
-        <v>66</v>
-      </c>
-      <c r="X9">
-        <v>60</v>
-      </c>
-      <c r="Y9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="14.75" spans="1:25">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>314</v>
       </c>
@@ -1778,44 +1442,8 @@
       <c r="M10">
         <v>64</v>
       </c>
-      <c r="N10">
-        <v>58</v>
-      </c>
-      <c r="O10">
-        <v>53</v>
-      </c>
-      <c r="P10">
-        <v>57</v>
-      </c>
-      <c r="Q10">
-        <v>75</v>
-      </c>
-      <c r="R10">
-        <v>70</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
-      </c>
-      <c r="T10">
-        <v>50</v>
-      </c>
-      <c r="U10">
-        <v>57</v>
-      </c>
-      <c r="V10">
-        <v>56</v>
-      </c>
-      <c r="W10">
-        <v>53</v>
-      </c>
-      <c r="X10">
-        <v>59</v>
-      </c>
-      <c r="Y10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>315</v>
       </c>
@@ -1855,44 +1483,8 @@
       <c r="M11">
         <v>52</v>
       </c>
-      <c r="N11">
-        <v>62</v>
-      </c>
-      <c r="O11">
-        <v>70</v>
-      </c>
-      <c r="P11">
-        <v>55</v>
-      </c>
-      <c r="Q11">
-        <v>54</v>
-      </c>
-      <c r="R11">
-        <v>70</v>
-      </c>
-      <c r="S11">
-        <v>58</v>
-      </c>
-      <c r="T11">
-        <v>58</v>
-      </c>
-      <c r="U11">
-        <v>74</v>
-      </c>
-      <c r="V11">
-        <v>74</v>
-      </c>
-      <c r="W11">
-        <v>71</v>
-      </c>
-      <c r="X11">
-        <v>54</v>
-      </c>
-      <c r="Y11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>316</v>
       </c>
@@ -1932,44 +1524,8 @@
       <c r="M12">
         <v>75</v>
       </c>
-      <c r="N12">
-        <v>71</v>
-      </c>
-      <c r="O12">
-        <v>56</v>
-      </c>
-      <c r="P12">
-        <v>62</v>
-      </c>
-      <c r="Q12">
-        <v>56</v>
-      </c>
-      <c r="R12">
-        <v>72</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
-      </c>
-      <c r="T12">
-        <v>61</v>
-      </c>
-      <c r="U12">
-        <v>70</v>
-      </c>
-      <c r="V12">
-        <v>62</v>
-      </c>
-      <c r="W12">
-        <v>72</v>
-      </c>
-      <c r="X12">
-        <v>69</v>
-      </c>
-      <c r="Y12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>317</v>
       </c>
@@ -2009,44 +1565,8 @@
       <c r="M13">
         <v>67</v>
       </c>
-      <c r="N13">
-        <v>59</v>
-      </c>
-      <c r="O13">
-        <v>67</v>
-      </c>
-      <c r="P13">
-        <v>68</v>
-      </c>
-      <c r="Q13">
-        <v>71</v>
-      </c>
-      <c r="R13">
-        <v>62</v>
-      </c>
-      <c r="S13">
-        <v>65</v>
-      </c>
-      <c r="T13">
-        <v>59</v>
-      </c>
-      <c r="U13">
-        <v>54</v>
-      </c>
-      <c r="V13">
-        <v>61</v>
-      </c>
-      <c r="W13">
-        <v>69</v>
-      </c>
-      <c r="X13">
-        <v>53</v>
-      </c>
-      <c r="Y13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>318</v>
       </c>
@@ -2086,44 +1606,8 @@
       <c r="M14">
         <v>56</v>
       </c>
-      <c r="N14">
-        <v>74</v>
-      </c>
-      <c r="O14">
-        <v>75</v>
-      </c>
-      <c r="P14">
-        <v>66</v>
-      </c>
-      <c r="Q14">
-        <v>70</v>
-      </c>
-      <c r="R14">
-        <v>65</v>
-      </c>
-      <c r="S14">
-        <v>63</v>
-      </c>
-      <c r="T14">
-        <v>56</v>
-      </c>
-      <c r="U14">
-        <v>57</v>
-      </c>
-      <c r="V14">
-        <v>57</v>
-      </c>
-      <c r="W14">
-        <v>66</v>
-      </c>
-      <c r="X14">
-        <v>60</v>
-      </c>
-      <c r="Y14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2163,44 +1647,8 @@
       <c r="M15">
         <v>64</v>
       </c>
-      <c r="N15">
-        <v>58</v>
-      </c>
-      <c r="O15">
-        <v>53</v>
-      </c>
-      <c r="P15">
-        <v>57</v>
-      </c>
-      <c r="Q15">
-        <v>75</v>
-      </c>
-      <c r="R15">
-        <v>70</v>
-      </c>
-      <c r="S15">
-        <v>50</v>
-      </c>
-      <c r="T15">
-        <v>50</v>
-      </c>
-      <c r="U15">
-        <v>57</v>
-      </c>
-      <c r="V15">
-        <v>56</v>
-      </c>
-      <c r="W15">
-        <v>53</v>
-      </c>
-      <c r="X15">
-        <v>59</v>
-      </c>
-      <c r="Y15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>326</v>
       </c>
@@ -2240,44 +1688,8 @@
       <c r="M16">
         <v>67</v>
       </c>
-      <c r="N16">
-        <v>58</v>
-      </c>
-      <c r="O16">
-        <v>63</v>
-      </c>
-      <c r="P16">
-        <v>56</v>
-      </c>
-      <c r="Q16">
-        <v>55</v>
-      </c>
-      <c r="R16">
-        <v>68</v>
-      </c>
-      <c r="S16">
-        <v>57</v>
-      </c>
-      <c r="T16">
-        <v>61</v>
-      </c>
-      <c r="U16">
-        <v>56</v>
-      </c>
-      <c r="V16">
-        <v>58</v>
-      </c>
-      <c r="W16">
-        <v>60</v>
-      </c>
-      <c r="X16">
-        <v>60</v>
-      </c>
-      <c r="Y16">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>331</v>
       </c>
@@ -2317,44 +1729,8 @@
       <c r="M17">
         <v>65</v>
       </c>
-      <c r="N17">
-        <v>57</v>
-      </c>
-      <c r="O17">
-        <v>52</v>
-      </c>
-      <c r="P17">
-        <v>57</v>
-      </c>
-      <c r="Q17">
-        <v>67</v>
-      </c>
-      <c r="R17">
-        <v>50</v>
-      </c>
-      <c r="S17">
-        <v>71</v>
-      </c>
-      <c r="T17">
-        <v>52</v>
-      </c>
-      <c r="U17">
-        <v>72</v>
-      </c>
-      <c r="V17">
-        <v>71</v>
-      </c>
-      <c r="W17">
-        <v>56</v>
-      </c>
-      <c r="X17">
-        <v>64</v>
-      </c>
-      <c r="Y17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>332</v>
       </c>
@@ -2394,44 +1770,8 @@
       <c r="M18">
         <v>60</v>
       </c>
-      <c r="N18">
-        <v>57</v>
-      </c>
-      <c r="O18">
-        <v>73</v>
-      </c>
-      <c r="P18">
-        <v>65</v>
-      </c>
-      <c r="Q18">
-        <v>63</v>
-      </c>
-      <c r="R18">
-        <v>67</v>
-      </c>
-      <c r="S18">
-        <v>53</v>
-      </c>
-      <c r="T18">
-        <v>68</v>
-      </c>
-      <c r="U18">
-        <v>71</v>
-      </c>
-      <c r="V18">
-        <v>57</v>
-      </c>
-      <c r="W18">
-        <v>60</v>
-      </c>
-      <c r="X18">
-        <v>68</v>
-      </c>
-      <c r="Y18">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>333</v>
       </c>
@@ -2471,44 +1811,8 @@
       <c r="M19">
         <v>60</v>
       </c>
-      <c r="N19">
-        <v>75</v>
-      </c>
-      <c r="O19">
-        <v>59</v>
-      </c>
-      <c r="P19">
-        <v>69</v>
-      </c>
-      <c r="Q19">
-        <v>63</v>
-      </c>
-      <c r="R19">
-        <v>54</v>
-      </c>
-      <c r="S19">
-        <v>55</v>
-      </c>
-      <c r="T19">
-        <v>66</v>
-      </c>
-      <c r="U19">
-        <v>68</v>
-      </c>
-      <c r="V19">
-        <v>55</v>
-      </c>
-      <c r="W19">
-        <v>64</v>
-      </c>
-      <c r="X19">
-        <v>55</v>
-      </c>
-      <c r="Y19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>334</v>
       </c>
@@ -2548,44 +1852,8 @@
       <c r="M20">
         <v>52</v>
       </c>
-      <c r="N20">
-        <v>62</v>
-      </c>
-      <c r="O20">
-        <v>70</v>
-      </c>
-      <c r="P20">
-        <v>55</v>
-      </c>
-      <c r="Q20">
-        <v>54</v>
-      </c>
-      <c r="R20">
-        <v>70</v>
-      </c>
-      <c r="S20">
-        <v>58</v>
-      </c>
-      <c r="T20">
-        <v>58</v>
-      </c>
-      <c r="U20">
-        <v>74</v>
-      </c>
-      <c r="V20">
-        <v>74</v>
-      </c>
-      <c r="W20">
-        <v>71</v>
-      </c>
-      <c r="X20">
-        <v>54</v>
-      </c>
-      <c r="Y20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>336</v>
       </c>
@@ -2624,42 +1892,6 @@
       </c>
       <c r="M21">
         <v>75</v>
-      </c>
-      <c r="N21">
-        <v>71</v>
-      </c>
-      <c r="O21">
-        <v>56</v>
-      </c>
-      <c r="P21">
-        <v>62</v>
-      </c>
-      <c r="Q21">
-        <v>56</v>
-      </c>
-      <c r="R21">
-        <v>72</v>
-      </c>
-      <c r="S21">
-        <v>50</v>
-      </c>
-      <c r="T21">
-        <v>61</v>
-      </c>
-      <c r="U21">
-        <v>70</v>
-      </c>
-      <c r="V21">
-        <v>62</v>
-      </c>
-      <c r="W21">
-        <v>72</v>
-      </c>
-      <c r="X21">
-        <v>69</v>
-      </c>
-      <c r="Y21">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/revenue-cogs/bju_asumsi_unit_beli.xlsx
+++ b/public/file/revenue-cogs/bju_asumsi_unit_beli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9795"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>code_product</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>code_project</t>
   </si>
   <si>
     <t>jan</t>
@@ -53,6 +53,66 @@
   </si>
   <si>
     <t>des</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>L001</t>
+  </si>
+  <si>
+    <t>L002</t>
+  </si>
+  <si>
+    <t>L003</t>
+  </si>
+  <si>
+    <t>L004</t>
+  </si>
+  <si>
+    <t>L005</t>
+  </si>
+  <si>
+    <t>L006</t>
+  </si>
+  <si>
+    <t>L007</t>
+  </si>
+  <si>
+    <t>L008</t>
+  </si>
+  <si>
+    <t>L009</t>
+  </si>
+  <si>
+    <t>L010</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>E004</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>E008</t>
   </si>
 </sst>
 </file>
@@ -60,38 +120,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,16 +142,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,21 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -157,19 +181,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,13 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,9 +226,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +249,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,7 +287,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,182 +471,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -434,17 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD3D3D3"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FFD3D3D3"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,30 +510,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,153 +563,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -703,60 +735,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1025,15 +1056,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="A1" sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,10 +1104,58 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="str">
+        <f t="shared" ref="N1:Y1" si="0">_xlfn.CONCAT(B1," budget")</f>
+        <v>jan budget</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>feb budget</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mar budget</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>apr budget</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mei budget</v>
+      </c>
+      <c r="S1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>jun budget</v>
+      </c>
+      <c r="T1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>jul budget</v>
+      </c>
+      <c r="U1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>agu budget</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>sep budget</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>okt budget</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>nov budget</v>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>des budget</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2">
-        <v>302</v>
+    <row r="2" spans="1:25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>69</v>
@@ -1114,10 +1193,46 @@
       <c r="M2">
         <v>67</v>
       </c>
+      <c r="N2">
+        <v>58</v>
+      </c>
+      <c r="O2">
+        <v>63</v>
+      </c>
+      <c r="P2">
+        <v>56</v>
+      </c>
+      <c r="Q2">
+        <v>55</v>
+      </c>
+      <c r="R2">
+        <v>68</v>
+      </c>
+      <c r="S2">
+        <v>57</v>
+      </c>
+      <c r="T2">
+        <v>61</v>
+      </c>
+      <c r="U2">
+        <v>56</v>
+      </c>
+      <c r="V2">
+        <v>58</v>
+      </c>
+      <c r="W2">
+        <v>60</v>
+      </c>
+      <c r="X2">
+        <v>60</v>
+      </c>
+      <c r="Y2">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2">
-        <v>306</v>
+    <row r="3" spans="1:25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -1155,10 +1270,46 @@
       <c r="M3">
         <v>65</v>
       </c>
+      <c r="N3">
+        <v>57</v>
+      </c>
+      <c r="O3">
+        <v>52</v>
+      </c>
+      <c r="P3">
+        <v>57</v>
+      </c>
+      <c r="Q3">
+        <v>67</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>71</v>
+      </c>
+      <c r="T3">
+        <v>52</v>
+      </c>
+      <c r="U3">
+        <v>72</v>
+      </c>
+      <c r="V3">
+        <v>71</v>
+      </c>
+      <c r="W3">
+        <v>56</v>
+      </c>
+      <c r="X3">
+        <v>64</v>
+      </c>
+      <c r="Y3">
+        <v>71</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2">
-        <v>308</v>
+    <row r="4" spans="1:25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B4">
         <v>62</v>
@@ -1196,10 +1347,46 @@
       <c r="M4">
         <v>60</v>
       </c>
+      <c r="N4">
+        <v>57</v>
+      </c>
+      <c r="O4">
+        <v>73</v>
+      </c>
+      <c r="P4">
+        <v>65</v>
+      </c>
+      <c r="Q4">
+        <v>63</v>
+      </c>
+      <c r="R4">
+        <v>67</v>
+      </c>
+      <c r="S4">
+        <v>53</v>
+      </c>
+      <c r="T4">
+        <v>68</v>
+      </c>
+      <c r="U4">
+        <v>71</v>
+      </c>
+      <c r="V4">
+        <v>57</v>
+      </c>
+      <c r="W4">
+        <v>60</v>
+      </c>
+      <c r="X4">
+        <v>68</v>
+      </c>
+      <c r="Y4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2">
-        <v>309</v>
+    <row r="5" spans="1:25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <v>72</v>
@@ -1237,10 +1424,46 @@
       <c r="M5">
         <v>60</v>
       </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>59</v>
+      </c>
+      <c r="P5">
+        <v>69</v>
+      </c>
+      <c r="Q5">
+        <v>63</v>
+      </c>
+      <c r="R5">
+        <v>54</v>
+      </c>
+      <c r="S5">
+        <v>55</v>
+      </c>
+      <c r="T5">
+        <v>66</v>
+      </c>
+      <c r="U5">
+        <v>68</v>
+      </c>
+      <c r="V5">
+        <v>55</v>
+      </c>
+      <c r="W5">
+        <v>64</v>
+      </c>
+      <c r="X5">
+        <v>55</v>
+      </c>
+      <c r="Y5">
+        <v>73</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
-        <v>310</v>
+    <row r="6" spans="1:25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B6">
         <v>58</v>
@@ -1278,10 +1501,46 @@
       <c r="M6">
         <v>52</v>
       </c>
+      <c r="N6">
+        <v>62</v>
+      </c>
+      <c r="O6">
+        <v>70</v>
+      </c>
+      <c r="P6">
+        <v>55</v>
+      </c>
+      <c r="Q6">
+        <v>54</v>
+      </c>
+      <c r="R6">
+        <v>70</v>
+      </c>
+      <c r="S6">
+        <v>58</v>
+      </c>
+      <c r="T6">
+        <v>58</v>
+      </c>
+      <c r="U6">
+        <v>74</v>
+      </c>
+      <c r="V6">
+        <v>74</v>
+      </c>
+      <c r="W6">
+        <v>71</v>
+      </c>
+      <c r="X6">
+        <v>54</v>
+      </c>
+      <c r="Y6">
+        <v>75</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
-        <v>311</v>
+    <row r="7" spans="1:25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <v>54</v>
@@ -1319,10 +1578,46 @@
       <c r="M7">
         <v>75</v>
       </c>
+      <c r="N7">
+        <v>71</v>
+      </c>
+      <c r="O7">
+        <v>56</v>
+      </c>
+      <c r="P7">
+        <v>62</v>
+      </c>
+      <c r="Q7">
+        <v>56</v>
+      </c>
+      <c r="R7">
+        <v>72</v>
+      </c>
+      <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <v>61</v>
+      </c>
+      <c r="U7">
+        <v>70</v>
+      </c>
+      <c r="V7">
+        <v>62</v>
+      </c>
+      <c r="W7">
+        <v>72</v>
+      </c>
+      <c r="X7">
+        <v>69</v>
+      </c>
+      <c r="Y7">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>312</v>
+    <row r="8" spans="1:25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B8">
         <v>62</v>
@@ -1360,10 +1655,46 @@
       <c r="M8">
         <v>67</v>
       </c>
+      <c r="N8">
+        <v>59</v>
+      </c>
+      <c r="O8">
+        <v>67</v>
+      </c>
+      <c r="P8">
+        <v>68</v>
+      </c>
+      <c r="Q8">
+        <v>71</v>
+      </c>
+      <c r="R8">
+        <v>62</v>
+      </c>
+      <c r="S8">
+        <v>65</v>
+      </c>
+      <c r="T8">
+        <v>59</v>
+      </c>
+      <c r="U8">
+        <v>54</v>
+      </c>
+      <c r="V8">
+        <v>61</v>
+      </c>
+      <c r="W8">
+        <v>69</v>
+      </c>
+      <c r="X8">
+        <v>53</v>
+      </c>
+      <c r="Y8">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>313</v>
+    <row r="9" spans="1:25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B9">
         <v>51</v>
@@ -1401,10 +1732,46 @@
       <c r="M9">
         <v>56</v>
       </c>
+      <c r="N9">
+        <v>74</v>
+      </c>
+      <c r="O9">
+        <v>75</v>
+      </c>
+      <c r="P9">
+        <v>66</v>
+      </c>
+      <c r="Q9">
+        <v>70</v>
+      </c>
+      <c r="R9">
+        <v>65</v>
+      </c>
+      <c r="S9">
+        <v>63</v>
+      </c>
+      <c r="T9">
+        <v>56</v>
+      </c>
+      <c r="U9">
+        <v>57</v>
+      </c>
+      <c r="V9">
+        <v>57</v>
+      </c>
+      <c r="W9">
+        <v>66</v>
+      </c>
+      <c r="X9">
+        <v>60</v>
+      </c>
+      <c r="Y9">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2">
-        <v>314</v>
+    <row r="10" spans="1:25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>52</v>
@@ -1442,10 +1809,46 @@
       <c r="M10">
         <v>64</v>
       </c>
+      <c r="N10">
+        <v>58</v>
+      </c>
+      <c r="O10">
+        <v>53</v>
+      </c>
+      <c r="P10">
+        <v>57</v>
+      </c>
+      <c r="Q10">
+        <v>75</v>
+      </c>
+      <c r="R10">
+        <v>70</v>
+      </c>
+      <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
+        <v>50</v>
+      </c>
+      <c r="U10">
+        <v>57</v>
+      </c>
+      <c r="V10">
+        <v>56</v>
+      </c>
+      <c r="W10">
+        <v>53</v>
+      </c>
+      <c r="X10">
+        <v>59</v>
+      </c>
+      <c r="Y10">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>315</v>
+    <row r="11" spans="1:25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B11">
         <v>58</v>
@@ -1483,10 +1886,46 @@
       <c r="M11">
         <v>52</v>
       </c>
+      <c r="N11">
+        <v>62</v>
+      </c>
+      <c r="O11">
+        <v>70</v>
+      </c>
+      <c r="P11">
+        <v>55</v>
+      </c>
+      <c r="Q11">
+        <v>54</v>
+      </c>
+      <c r="R11">
+        <v>70</v>
+      </c>
+      <c r="S11">
+        <v>58</v>
+      </c>
+      <c r="T11">
+        <v>58</v>
+      </c>
+      <c r="U11">
+        <v>74</v>
+      </c>
+      <c r="V11">
+        <v>74</v>
+      </c>
+      <c r="W11">
+        <v>71</v>
+      </c>
+      <c r="X11">
+        <v>54</v>
+      </c>
+      <c r="Y11">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>316</v>
+    <row r="12" spans="1:25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B12">
         <v>54</v>
@@ -1524,10 +1963,46 @@
       <c r="M12">
         <v>75</v>
       </c>
+      <c r="N12">
+        <v>71</v>
+      </c>
+      <c r="O12">
+        <v>56</v>
+      </c>
+      <c r="P12">
+        <v>62</v>
+      </c>
+      <c r="Q12">
+        <v>56</v>
+      </c>
+      <c r="R12">
+        <v>72</v>
+      </c>
+      <c r="S12">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <v>61</v>
+      </c>
+      <c r="U12">
+        <v>70</v>
+      </c>
+      <c r="V12">
+        <v>62</v>
+      </c>
+      <c r="W12">
+        <v>72</v>
+      </c>
+      <c r="X12">
+        <v>69</v>
+      </c>
+      <c r="Y12">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>317</v>
+    <row r="13" spans="1:25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
         <v>62</v>
@@ -1565,10 +2040,46 @@
       <c r="M13">
         <v>67</v>
       </c>
+      <c r="N13">
+        <v>59</v>
+      </c>
+      <c r="O13">
+        <v>67</v>
+      </c>
+      <c r="P13">
+        <v>68</v>
+      </c>
+      <c r="Q13">
+        <v>71</v>
+      </c>
+      <c r="R13">
+        <v>62</v>
+      </c>
+      <c r="S13">
+        <v>65</v>
+      </c>
+      <c r="T13">
+        <v>59</v>
+      </c>
+      <c r="U13">
+        <v>54</v>
+      </c>
+      <c r="V13">
+        <v>61</v>
+      </c>
+      <c r="W13">
+        <v>69</v>
+      </c>
+      <c r="X13">
+        <v>53</v>
+      </c>
+      <c r="Y13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>318</v>
+    <row r="14" spans="1:25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <v>51</v>
@@ -1606,10 +2117,46 @@
       <c r="M14">
         <v>56</v>
       </c>
+      <c r="N14">
+        <v>74</v>
+      </c>
+      <c r="O14">
+        <v>75</v>
+      </c>
+      <c r="P14">
+        <v>66</v>
+      </c>
+      <c r="Q14">
+        <v>70</v>
+      </c>
+      <c r="R14">
+        <v>65</v>
+      </c>
+      <c r="S14">
+        <v>63</v>
+      </c>
+      <c r="T14">
+        <v>56</v>
+      </c>
+      <c r="U14">
+        <v>57</v>
+      </c>
+      <c r="V14">
+        <v>57</v>
+      </c>
+      <c r="W14">
+        <v>66</v>
+      </c>
+      <c r="X14">
+        <v>60</v>
+      </c>
+      <c r="Y14">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>319</v>
+    <row r="15" spans="1:25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B15">
         <v>52</v>
@@ -1647,10 +2194,46 @@
       <c r="M15">
         <v>64</v>
       </c>
+      <c r="N15">
+        <v>58</v>
+      </c>
+      <c r="O15">
+        <v>53</v>
+      </c>
+      <c r="P15">
+        <v>57</v>
+      </c>
+      <c r="Q15">
+        <v>75</v>
+      </c>
+      <c r="R15">
+        <v>70</v>
+      </c>
+      <c r="S15">
+        <v>50</v>
+      </c>
+      <c r="T15">
+        <v>50</v>
+      </c>
+      <c r="U15">
+        <v>57</v>
+      </c>
+      <c r="V15">
+        <v>56</v>
+      </c>
+      <c r="W15">
+        <v>53</v>
+      </c>
+      <c r="X15">
+        <v>59</v>
+      </c>
+      <c r="Y15">
+        <v>50</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>326</v>
+    <row r="16" spans="1:25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B16">
         <v>69</v>
@@ -1688,10 +2271,46 @@
       <c r="M16">
         <v>67</v>
       </c>
+      <c r="N16">
+        <v>58</v>
+      </c>
+      <c r="O16">
+        <v>63</v>
+      </c>
+      <c r="P16">
+        <v>56</v>
+      </c>
+      <c r="Q16">
+        <v>55</v>
+      </c>
+      <c r="R16">
+        <v>68</v>
+      </c>
+      <c r="S16">
+        <v>57</v>
+      </c>
+      <c r="T16">
+        <v>61</v>
+      </c>
+      <c r="U16">
+        <v>56</v>
+      </c>
+      <c r="V16">
+        <v>58</v>
+      </c>
+      <c r="W16">
+        <v>60</v>
+      </c>
+      <c r="X16">
+        <v>60</v>
+      </c>
+      <c r="Y16">
+        <v>67</v>
+      </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>331</v>
+    <row r="17" spans="1:25">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B17">
         <v>73</v>
@@ -1729,10 +2348,46 @@
       <c r="M17">
         <v>65</v>
       </c>
+      <c r="N17">
+        <v>57</v>
+      </c>
+      <c r="O17">
+        <v>52</v>
+      </c>
+      <c r="P17">
+        <v>57</v>
+      </c>
+      <c r="Q17">
+        <v>67</v>
+      </c>
+      <c r="R17">
+        <v>50</v>
+      </c>
+      <c r="S17">
+        <v>71</v>
+      </c>
+      <c r="T17">
+        <v>52</v>
+      </c>
+      <c r="U17">
+        <v>72</v>
+      </c>
+      <c r="V17">
+        <v>71</v>
+      </c>
+      <c r="W17">
+        <v>56</v>
+      </c>
+      <c r="X17">
+        <v>64</v>
+      </c>
+      <c r="Y17">
+        <v>71</v>
+      </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>332</v>
+    <row r="18" spans="1:25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B18">
         <v>62</v>
@@ -1770,10 +2425,46 @@
       <c r="M18">
         <v>60</v>
       </c>
+      <c r="N18">
+        <v>57</v>
+      </c>
+      <c r="O18">
+        <v>73</v>
+      </c>
+      <c r="P18">
+        <v>65</v>
+      </c>
+      <c r="Q18">
+        <v>63</v>
+      </c>
+      <c r="R18">
+        <v>67</v>
+      </c>
+      <c r="S18">
+        <v>53</v>
+      </c>
+      <c r="T18">
+        <v>68</v>
+      </c>
+      <c r="U18">
+        <v>71</v>
+      </c>
+      <c r="V18">
+        <v>57</v>
+      </c>
+      <c r="W18">
+        <v>60</v>
+      </c>
+      <c r="X18">
+        <v>68</v>
+      </c>
+      <c r="Y18">
+        <v>57</v>
+      </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>333</v>
+    <row r="19" spans="1:25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B19">
         <v>72</v>
@@ -1811,10 +2502,46 @@
       <c r="M19">
         <v>60</v>
       </c>
+      <c r="N19">
+        <v>75</v>
+      </c>
+      <c r="O19">
+        <v>59</v>
+      </c>
+      <c r="P19">
+        <v>69</v>
+      </c>
+      <c r="Q19">
+        <v>63</v>
+      </c>
+      <c r="R19">
+        <v>54</v>
+      </c>
+      <c r="S19">
+        <v>55</v>
+      </c>
+      <c r="T19">
+        <v>66</v>
+      </c>
+      <c r="U19">
+        <v>68</v>
+      </c>
+      <c r="V19">
+        <v>55</v>
+      </c>
+      <c r="W19">
+        <v>64</v>
+      </c>
+      <c r="X19">
+        <v>55</v>
+      </c>
+      <c r="Y19">
+        <v>73</v>
+      </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>334</v>
+    <row r="20" spans="1:25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B20">
         <v>58</v>
@@ -1852,10 +2579,46 @@
       <c r="M20">
         <v>52</v>
       </c>
+      <c r="N20">
+        <v>62</v>
+      </c>
+      <c r="O20">
+        <v>70</v>
+      </c>
+      <c r="P20">
+        <v>55</v>
+      </c>
+      <c r="Q20">
+        <v>54</v>
+      </c>
+      <c r="R20">
+        <v>70</v>
+      </c>
+      <c r="S20">
+        <v>58</v>
+      </c>
+      <c r="T20">
+        <v>58</v>
+      </c>
+      <c r="U20">
+        <v>74</v>
+      </c>
+      <c r="V20">
+        <v>74</v>
+      </c>
+      <c r="W20">
+        <v>71</v>
+      </c>
+      <c r="X20">
+        <v>54</v>
+      </c>
+      <c r="Y20">
+        <v>75</v>
+      </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>336</v>
+    <row r="21" spans="1:25">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B21">
         <v>54</v>
@@ -1892,6 +2655,42 @@
       </c>
       <c r="M21">
         <v>75</v>
+      </c>
+      <c r="N21">
+        <v>71</v>
+      </c>
+      <c r="O21">
+        <v>56</v>
+      </c>
+      <c r="P21">
+        <v>62</v>
+      </c>
+      <c r="Q21">
+        <v>56</v>
+      </c>
+      <c r="R21">
+        <v>72</v>
+      </c>
+      <c r="S21">
+        <v>50</v>
+      </c>
+      <c r="T21">
+        <v>61</v>
+      </c>
+      <c r="U21">
+        <v>70</v>
+      </c>
+      <c r="V21">
+        <v>62</v>
+      </c>
+      <c r="W21">
+        <v>72</v>
+      </c>
+      <c r="X21">
+        <v>69</v>
+      </c>
+      <c r="Y21">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/revenue-cogs/bju_asumsi_unit_beli.xlsx
+++ b/public/file/revenue-cogs/bju_asumsi_unit_beli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="20745" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,12 +118,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,31 +142,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -181,25 +173,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +214,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,21 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -255,24 +264,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,25 +287,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,55 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,97 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,26 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +501,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,13 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +568,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,148 +583,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -740,54 +740,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1056,15 +1056,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,56 +1104,8 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="str">
-        <f t="shared" ref="N1:Y1" si="0">_xlfn.CONCAT(B1," budget")</f>
-        <v>jan budget</v>
-      </c>
-      <c r="O1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>feb budget</v>
-      </c>
-      <c r="P1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>mar budget</v>
-      </c>
-      <c r="Q1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>apr budget</v>
-      </c>
-      <c r="R1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>mei budget</v>
-      </c>
-      <c r="S1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>jun budget</v>
-      </c>
-      <c r="T1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>jul budget</v>
-      </c>
-      <c r="U1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>agu budget</v>
-      </c>
-      <c r="V1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>sep budget</v>
-      </c>
-      <c r="W1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>okt budget</v>
-      </c>
-      <c r="X1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nov budget</v>
-      </c>
-      <c r="Y1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>des budget</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1193,44 +1145,8 @@
       <c r="M2">
         <v>67</v>
       </c>
-      <c r="N2">
-        <v>58</v>
-      </c>
-      <c r="O2">
-        <v>63</v>
-      </c>
-      <c r="P2">
-        <v>56</v>
-      </c>
-      <c r="Q2">
-        <v>55</v>
-      </c>
-      <c r="R2">
-        <v>68</v>
-      </c>
-      <c r="S2">
-        <v>57</v>
-      </c>
-      <c r="T2">
-        <v>61</v>
-      </c>
-      <c r="U2">
-        <v>56</v>
-      </c>
-      <c r="V2">
-        <v>58</v>
-      </c>
-      <c r="W2">
-        <v>60</v>
-      </c>
-      <c r="X2">
-        <v>60</v>
-      </c>
-      <c r="Y2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1270,44 +1186,8 @@
       <c r="M3">
         <v>65</v>
       </c>
-      <c r="N3">
-        <v>57</v>
-      </c>
-      <c r="O3">
-        <v>52</v>
-      </c>
-      <c r="P3">
-        <v>57</v>
-      </c>
-      <c r="Q3">
-        <v>67</v>
-      </c>
-      <c r="R3">
-        <v>50</v>
-      </c>
-      <c r="S3">
-        <v>71</v>
-      </c>
-      <c r="T3">
-        <v>52</v>
-      </c>
-      <c r="U3">
-        <v>72</v>
-      </c>
-      <c r="V3">
-        <v>71</v>
-      </c>
-      <c r="W3">
-        <v>56</v>
-      </c>
-      <c r="X3">
-        <v>64</v>
-      </c>
-      <c r="Y3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1347,44 +1227,8 @@
       <c r="M4">
         <v>60</v>
       </c>
-      <c r="N4">
-        <v>57</v>
-      </c>
-      <c r="O4">
-        <v>73</v>
-      </c>
-      <c r="P4">
-        <v>65</v>
-      </c>
-      <c r="Q4">
-        <v>63</v>
-      </c>
-      <c r="R4">
-        <v>67</v>
-      </c>
-      <c r="S4">
-        <v>53</v>
-      </c>
-      <c r="T4">
-        <v>68</v>
-      </c>
-      <c r="U4">
-        <v>71</v>
-      </c>
-      <c r="V4">
-        <v>57</v>
-      </c>
-      <c r="W4">
-        <v>60</v>
-      </c>
-      <c r="X4">
-        <v>68</v>
-      </c>
-      <c r="Y4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1424,44 +1268,8 @@
       <c r="M5">
         <v>60</v>
       </c>
-      <c r="N5">
-        <v>75</v>
-      </c>
-      <c r="O5">
-        <v>59</v>
-      </c>
-      <c r="P5">
-        <v>69</v>
-      </c>
-      <c r="Q5">
-        <v>63</v>
-      </c>
-      <c r="R5">
-        <v>54</v>
-      </c>
-      <c r="S5">
-        <v>55</v>
-      </c>
-      <c r="T5">
-        <v>66</v>
-      </c>
-      <c r="U5">
-        <v>68</v>
-      </c>
-      <c r="V5">
-        <v>55</v>
-      </c>
-      <c r="W5">
-        <v>64</v>
-      </c>
-      <c r="X5">
-        <v>55</v>
-      </c>
-      <c r="Y5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1501,44 +1309,8 @@
       <c r="M6">
         <v>52</v>
       </c>
-      <c r="N6">
-        <v>62</v>
-      </c>
-      <c r="O6">
-        <v>70</v>
-      </c>
-      <c r="P6">
-        <v>55</v>
-      </c>
-      <c r="Q6">
-        <v>54</v>
-      </c>
-      <c r="R6">
-        <v>70</v>
-      </c>
-      <c r="S6">
-        <v>58</v>
-      </c>
-      <c r="T6">
-        <v>58</v>
-      </c>
-      <c r="U6">
-        <v>74</v>
-      </c>
-      <c r="V6">
-        <v>74</v>
-      </c>
-      <c r="W6">
-        <v>71</v>
-      </c>
-      <c r="X6">
-        <v>54</v>
-      </c>
-      <c r="Y6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1578,44 +1350,8 @@
       <c r="M7">
         <v>75</v>
       </c>
-      <c r="N7">
-        <v>71</v>
-      </c>
-      <c r="O7">
-        <v>56</v>
-      </c>
-      <c r="P7">
-        <v>62</v>
-      </c>
-      <c r="Q7">
-        <v>56</v>
-      </c>
-      <c r="R7">
-        <v>72</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
-      </c>
-      <c r="T7">
-        <v>61</v>
-      </c>
-      <c r="U7">
-        <v>70</v>
-      </c>
-      <c r="V7">
-        <v>62</v>
-      </c>
-      <c r="W7">
-        <v>72</v>
-      </c>
-      <c r="X7">
-        <v>69</v>
-      </c>
-      <c r="Y7">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1655,44 +1391,8 @@
       <c r="M8">
         <v>67</v>
       </c>
-      <c r="N8">
-        <v>59</v>
-      </c>
-      <c r="O8">
-        <v>67</v>
-      </c>
-      <c r="P8">
-        <v>68</v>
-      </c>
-      <c r="Q8">
-        <v>71</v>
-      </c>
-      <c r="R8">
-        <v>62</v>
-      </c>
-      <c r="S8">
-        <v>65</v>
-      </c>
-      <c r="T8">
-        <v>59</v>
-      </c>
-      <c r="U8">
-        <v>54</v>
-      </c>
-      <c r="V8">
-        <v>61</v>
-      </c>
-      <c r="W8">
-        <v>69</v>
-      </c>
-      <c r="X8">
-        <v>53</v>
-      </c>
-      <c r="Y8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1732,44 +1432,8 @@
       <c r="M9">
         <v>56</v>
       </c>
-      <c r="N9">
-        <v>74</v>
-      </c>
-      <c r="O9">
-        <v>75</v>
-      </c>
-      <c r="P9">
-        <v>66</v>
-      </c>
-      <c r="Q9">
-        <v>70</v>
-      </c>
-      <c r="R9">
-        <v>65</v>
-      </c>
-      <c r="S9">
-        <v>63</v>
-      </c>
-      <c r="T9">
-        <v>56</v>
-      </c>
-      <c r="U9">
-        <v>57</v>
-      </c>
-      <c r="V9">
-        <v>57</v>
-      </c>
-      <c r="W9">
-        <v>66</v>
-      </c>
-      <c r="X9">
-        <v>60</v>
-      </c>
-      <c r="Y9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1809,44 +1473,8 @@
       <c r="M10">
         <v>64</v>
       </c>
-      <c r="N10">
-        <v>58</v>
-      </c>
-      <c r="O10">
-        <v>53</v>
-      </c>
-      <c r="P10">
-        <v>57</v>
-      </c>
-      <c r="Q10">
-        <v>75</v>
-      </c>
-      <c r="R10">
-        <v>70</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
-      </c>
-      <c r="T10">
-        <v>50</v>
-      </c>
-      <c r="U10">
-        <v>57</v>
-      </c>
-      <c r="V10">
-        <v>56</v>
-      </c>
-      <c r="W10">
-        <v>53</v>
-      </c>
-      <c r="X10">
-        <v>59</v>
-      </c>
-      <c r="Y10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1886,44 +1514,8 @@
       <c r="M11">
         <v>52</v>
       </c>
-      <c r="N11">
-        <v>62</v>
-      </c>
-      <c r="O11">
-        <v>70</v>
-      </c>
-      <c r="P11">
-        <v>55</v>
-      </c>
-      <c r="Q11">
-        <v>54</v>
-      </c>
-      <c r="R11">
-        <v>70</v>
-      </c>
-      <c r="S11">
-        <v>58</v>
-      </c>
-      <c r="T11">
-        <v>58</v>
-      </c>
-      <c r="U11">
-        <v>74</v>
-      </c>
-      <c r="V11">
-        <v>74</v>
-      </c>
-      <c r="W11">
-        <v>71</v>
-      </c>
-      <c r="X11">
-        <v>54</v>
-      </c>
-      <c r="Y11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1963,44 +1555,8 @@
       <c r="M12">
         <v>75</v>
       </c>
-      <c r="N12">
-        <v>71</v>
-      </c>
-      <c r="O12">
-        <v>56</v>
-      </c>
-      <c r="P12">
-        <v>62</v>
-      </c>
-      <c r="Q12">
-        <v>56</v>
-      </c>
-      <c r="R12">
-        <v>72</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
-      </c>
-      <c r="T12">
-        <v>61</v>
-      </c>
-      <c r="U12">
-        <v>70</v>
-      </c>
-      <c r="V12">
-        <v>62</v>
-      </c>
-      <c r="W12">
-        <v>72</v>
-      </c>
-      <c r="X12">
-        <v>69</v>
-      </c>
-      <c r="Y12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2040,44 +1596,8 @@
       <c r="M13">
         <v>67</v>
       </c>
-      <c r="N13">
-        <v>59</v>
-      </c>
-      <c r="O13">
-        <v>67</v>
-      </c>
-      <c r="P13">
-        <v>68</v>
-      </c>
-      <c r="Q13">
-        <v>71</v>
-      </c>
-      <c r="R13">
-        <v>62</v>
-      </c>
-      <c r="S13">
-        <v>65</v>
-      </c>
-      <c r="T13">
-        <v>59</v>
-      </c>
-      <c r="U13">
-        <v>54</v>
-      </c>
-      <c r="V13">
-        <v>61</v>
-      </c>
-      <c r="W13">
-        <v>69</v>
-      </c>
-      <c r="X13">
-        <v>53</v>
-      </c>
-      <c r="Y13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2117,44 +1637,8 @@
       <c r="M14">
         <v>56</v>
       </c>
-      <c r="N14">
-        <v>74</v>
-      </c>
-      <c r="O14">
-        <v>75</v>
-      </c>
-      <c r="P14">
-        <v>66</v>
-      </c>
-      <c r="Q14">
-        <v>70</v>
-      </c>
-      <c r="R14">
-        <v>65</v>
-      </c>
-      <c r="S14">
-        <v>63</v>
-      </c>
-      <c r="T14">
-        <v>56</v>
-      </c>
-      <c r="U14">
-        <v>57</v>
-      </c>
-      <c r="V14">
-        <v>57</v>
-      </c>
-      <c r="W14">
-        <v>66</v>
-      </c>
-      <c r="X14">
-        <v>60</v>
-      </c>
-      <c r="Y14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2194,44 +1678,8 @@
       <c r="M15">
         <v>64</v>
       </c>
-      <c r="N15">
-        <v>58</v>
-      </c>
-      <c r="O15">
-        <v>53</v>
-      </c>
-      <c r="P15">
-        <v>57</v>
-      </c>
-      <c r="Q15">
-        <v>75</v>
-      </c>
-      <c r="R15">
-        <v>70</v>
-      </c>
-      <c r="S15">
-        <v>50</v>
-      </c>
-      <c r="T15">
-        <v>50</v>
-      </c>
-      <c r="U15">
-        <v>57</v>
-      </c>
-      <c r="V15">
-        <v>56</v>
-      </c>
-      <c r="W15">
-        <v>53</v>
-      </c>
-      <c r="X15">
-        <v>59</v>
-      </c>
-      <c r="Y15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2271,44 +1719,8 @@
       <c r="M16">
         <v>67</v>
       </c>
-      <c r="N16">
-        <v>58</v>
-      </c>
-      <c r="O16">
-        <v>63</v>
-      </c>
-      <c r="P16">
-        <v>56</v>
-      </c>
-      <c r="Q16">
-        <v>55</v>
-      </c>
-      <c r="R16">
-        <v>68</v>
-      </c>
-      <c r="S16">
-        <v>57</v>
-      </c>
-      <c r="T16">
-        <v>61</v>
-      </c>
-      <c r="U16">
-        <v>56</v>
-      </c>
-      <c r="V16">
-        <v>58</v>
-      </c>
-      <c r="W16">
-        <v>60</v>
-      </c>
-      <c r="X16">
-        <v>60</v>
-      </c>
-      <c r="Y16">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2348,44 +1760,8 @@
       <c r="M17">
         <v>65</v>
       </c>
-      <c r="N17">
-        <v>57</v>
-      </c>
-      <c r="O17">
-        <v>52</v>
-      </c>
-      <c r="P17">
-        <v>57</v>
-      </c>
-      <c r="Q17">
-        <v>67</v>
-      </c>
-      <c r="R17">
-        <v>50</v>
-      </c>
-      <c r="S17">
-        <v>71</v>
-      </c>
-      <c r="T17">
-        <v>52</v>
-      </c>
-      <c r="U17">
-        <v>72</v>
-      </c>
-      <c r="V17">
-        <v>71</v>
-      </c>
-      <c r="W17">
-        <v>56</v>
-      </c>
-      <c r="X17">
-        <v>64</v>
-      </c>
-      <c r="Y17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2425,44 +1801,8 @@
       <c r="M18">
         <v>60</v>
       </c>
-      <c r="N18">
-        <v>57</v>
-      </c>
-      <c r="O18">
-        <v>73</v>
-      </c>
-      <c r="P18">
-        <v>65</v>
-      </c>
-      <c r="Q18">
-        <v>63</v>
-      </c>
-      <c r="R18">
-        <v>67</v>
-      </c>
-      <c r="S18">
-        <v>53</v>
-      </c>
-      <c r="T18">
-        <v>68</v>
-      </c>
-      <c r="U18">
-        <v>71</v>
-      </c>
-      <c r="V18">
-        <v>57</v>
-      </c>
-      <c r="W18">
-        <v>60</v>
-      </c>
-      <c r="X18">
-        <v>68</v>
-      </c>
-      <c r="Y18">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2502,44 +1842,8 @@
       <c r="M19">
         <v>60</v>
       </c>
-      <c r="N19">
-        <v>75</v>
-      </c>
-      <c r="O19">
-        <v>59</v>
-      </c>
-      <c r="P19">
-        <v>69</v>
-      </c>
-      <c r="Q19">
-        <v>63</v>
-      </c>
-      <c r="R19">
-        <v>54</v>
-      </c>
-      <c r="S19">
-        <v>55</v>
-      </c>
-      <c r="T19">
-        <v>66</v>
-      </c>
-      <c r="U19">
-        <v>68</v>
-      </c>
-      <c r="V19">
-        <v>55</v>
-      </c>
-      <c r="W19">
-        <v>64</v>
-      </c>
-      <c r="X19">
-        <v>55</v>
-      </c>
-      <c r="Y19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -2579,44 +1883,8 @@
       <c r="M20">
         <v>52</v>
       </c>
-      <c r="N20">
-        <v>62</v>
-      </c>
-      <c r="O20">
-        <v>70</v>
-      </c>
-      <c r="P20">
-        <v>55</v>
-      </c>
-      <c r="Q20">
-        <v>54</v>
-      </c>
-      <c r="R20">
-        <v>70</v>
-      </c>
-      <c r="S20">
-        <v>58</v>
-      </c>
-      <c r="T20">
-        <v>58</v>
-      </c>
-      <c r="U20">
-        <v>74</v>
-      </c>
-      <c r="V20">
-        <v>74</v>
-      </c>
-      <c r="W20">
-        <v>71</v>
-      </c>
-      <c r="X20">
-        <v>54</v>
-      </c>
-      <c r="Y20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -2655,42 +1923,6 @@
       </c>
       <c r="M21">
         <v>75</v>
-      </c>
-      <c r="N21">
-        <v>71</v>
-      </c>
-      <c r="O21">
-        <v>56</v>
-      </c>
-      <c r="P21">
-        <v>62</v>
-      </c>
-      <c r="Q21">
-        <v>56</v>
-      </c>
-      <c r="R21">
-        <v>72</v>
-      </c>
-      <c r="S21">
-        <v>50</v>
-      </c>
-      <c r="T21">
-        <v>61</v>
-      </c>
-      <c r="U21">
-        <v>70</v>
-      </c>
-      <c r="V21">
-        <v>62</v>
-      </c>
-      <c r="W21">
-        <v>72</v>
-      </c>
-      <c r="X21">
-        <v>69</v>
-      </c>
-      <c r="Y21">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
